--- a/forwardprimer-v3_02.xlsx
+++ b/forwardprimer-v3_02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_02" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F0097-GATGTGAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGTGAGTGTCGTCGGCAGCGTC</t>
+    <t>F0097-AAGCAAGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCAAGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F0098-ACCTGTGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTGTGAGATCGTCGGCAGCGTC</t>
+    <t>F0098-TACAGAGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGAGTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F0099-ACACACGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACACGTACTCGTCGGCAGCGTC</t>
+    <t>F0099-CGAAGTTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGTTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F0100-TCAAGTGTTG</t>
+    <t>F0100-ACCTGATCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTGATCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>F0101-ATGCAGGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGCAGGTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>F0102-GCACTAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCACTAGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>F0103-GACTGAAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTGAAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>F0104-CATCAGCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATCAGCTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>F0105-CTCCATCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCCATCAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>F0106-GAACGTAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACGTAGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>F0107-ATCTGACCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTGACCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>F0108-ATCGTCAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTCAAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>F0109-AGAACTCACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTCACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F0110-AGACTGTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTGTCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F0111-CTACACGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACACGTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F0112-CCTACAAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTACAAGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F0113-TGTGGTAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGTAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F0114-AGTGACGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTGACGACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F0115-TGTGAACCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAACCTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F0116-ACGTACAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTACAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F0117-CTCGTTCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGTTCCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F0118-ACCTTGGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTTGGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F0119-GTTGTGATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTGATCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F0120-CACGACTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACGACTGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F0121-CGATCTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATCTCCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F0122-TACGAACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGAACGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F0123-AGAGCTCGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCTCGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F0124-TCACTGACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTGACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F0125-TAGCAAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCAAGGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F0126-GAAGATCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGATCCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F0127-ACAACTGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACTGTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F0128-CTGGATGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGGATGGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F0129-ACTTCGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTCGTCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F0130-ACAGACATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGACATCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F0131-CGAAGTCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGTCTAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F0132-GTCTCATGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCATGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F0133-GAAGTCTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCTACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F0134-GATGTCTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGTCTTGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F0135-TTGGATCAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGATCAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F0136-AAGACGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACGAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F0137-AACAGTCGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTCGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F0138-CCTGAGTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTGAGTGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F0139-AACCTCTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTCTGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F0140-CTACAGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACAGTCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F0141-GTAGGTGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGTGGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F0142-TGTAGAGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGAGACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F0143-GTCACTACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCACTACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F0144-TCAACCAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACCAGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F0145-ACTGAACCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGAACCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F0146-CTCATGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCATGAAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F0147-ACATCGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCGTAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F0148-CTAGGTTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGTTGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F0149-CCTGATCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTGATCTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F0150-TTCATCACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCATCACGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F0151-CGTTCATCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCATCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F0152-TAGACTCAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACTCAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F0153-AGGTGATGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGATGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F0154-CAGGTTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGGTTCCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F0155-CTCGAGATCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCGAGATCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F0156-CAGTTCACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTTCACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F0157-GATCTAGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCTAGACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F0158-TCAAGTGTTG</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTCAAGTGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>F0101-AACCTTCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTTCCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>F0102-TCGTCAGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCAGTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>F0103-AAGCTGACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTGACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>F0104-AGGAGTGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAGTGCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>F0105-TCTGTCTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTCTGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>F0106-ACTCATCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCATCAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>F0107-ACTGCATGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGCATGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>F0108-GTTGTGATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTGATCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>F0109-TCCATGTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCATGTGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>F0110-AACGACTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGACTACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F0111-GGAGTGTCAA</t>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F0159-AGCAAGTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAAGTTCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F0160-CACAACTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACAACTGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F0161-AAGACAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACAGCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F0162-ACTAGGAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGGAGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F0163-TCTCAACAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAACAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F0164-GTGGATGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGGATGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F0165-GAAGTCAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTCAAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F0166-ACTACACAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACACAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F0167-TCAGGTTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGGTTCGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F0168-ACTACCATGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTACCATGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F0169-TCTACGTAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACGTAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F0170-ATCGTGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTGACTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F0171-TCACTGATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTGATCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F0172-GATCACAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCACAGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F0173-GTCAACTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACTCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F0174-TTGATCGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGATCGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F0175-CTACCAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTACCAGCTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F0176-GGATGTACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATGTACGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F0177-GGAGTGTCAA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGGAGTGTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F0112-TGAGTCACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTCACGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F0113-GATGCTACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGCTACACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F0114-GTCTGTTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTGTTCGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F0115-TGCTAGCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTAGCACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F0116-GTAGGATCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGATCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F0117-ATGGACACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGACACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F0118-AGAAGCTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGCTAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F0119-CACGAAGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACGAAGTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F0120-ATCACGACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCACGACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F0121-TTGATGTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGATGTGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F0122-CATCTCTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCTCTTGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F0123-CACTGTTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTGTTGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F0124-GTGAGACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGACTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F0125-TCAGAGCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAGCTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F0126-TGTGTGTACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTGTACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F0127-ACGAAGGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAAGGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F0128-CAAGTGAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTGAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F0129-ATGTTCTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTTCTCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F0130-TCACAAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACAAGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F0131-AGGAAGGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAAGGTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F0132-CGATCTCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATCTCTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F0133-CAACTGCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTGCTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F0134-TACACTTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACACTTGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F0135-ATCCTGTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTGTCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F0136-ATCCACCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCACCAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F0137-GACAACTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACAACTTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F0138-CTAGCTTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCTTCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F0139-TTCTCAACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCAACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F0140-AGTTCAAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCAAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F0141-TCTACAGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTACAGTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F0142-ACGTTCCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTTCCATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F0143-CGACTTCAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGACTTCAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F0144-CAAGGAAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGAAGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F0145-GGTACCATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTACCATCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F0146-TAGTCAAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCAAGCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F0147-GACGATCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACGATCTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F0148-TAGAAGATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAAGATCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F0149-CCTCTTGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTCTTGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F0150-AACGAACCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGAACCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F0151-GTCGATCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCGATCTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F0152-TTCAGGAACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGGAACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F0153-GTTGCAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCAGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F0154-ATCGAAGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGAAGATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F0155-CGTCATGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTCATGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F0156-AACAGTGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGTGTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F0157-AAGTGCAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGCAGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F0158-TAGGACTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGACTCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F0159-ACTCCAAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCCAAGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F0160-TCCAGCTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGCTGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F0161-AAGCTTGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTTGTCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F0162-CTCGTTGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCGTTGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F0163-AACAAGATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGATGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F0164-AACCTCATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTCATGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F0165-TAGGAAGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAAGGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F0166-GAGAAGTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAAGTGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F0167-TACCAGAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCAGAGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F0168-GTAGATGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGATGCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F0169-GTACGAACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACGAACAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F0170-GAGAGCTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGCTAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F0171-GTAGTCTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTCTTCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F0172-GAAGGTTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGTTGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F0173-CAGTGAACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGAACCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F0174-ACTCGATGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCGATGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F0175-CTACTGTCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACTGTCGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F0176-GCAGAAGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAGAAGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F0177-GTCATCAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCATCAGGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F0178-GAGTTCTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTCTCTTTCGTCGGCAGCGTC</t>
+    <t>F0178-TGTCCTCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCCTCGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F0179-TCAGAAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAAGTCATCGTCGGCAGCGTC</t>
+    <t>F0179-CAACAGCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F0180-GTGTCTACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCTACTCTCGTCGGCAGCGTC</t>
+    <t>F0180-TACGAGGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGAGGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F0181-CAGTGCAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGCAGATTCGTCGGCAGCGTC</t>
+    <t>F0181-ACAGAGTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGAGTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F0182-CTGTAGGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTAGGATGTCGTCGGCAGCGTC</t>
+    <t>F0182-TACACAGCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACACAGCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F0183-TTCTCTGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTCTGAGATCGTCGGCAGCGTC</t>
+    <t>F0183-TGTACGATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTACGATCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F0184-CATCACTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCACTCTTTCGTCGGCAGCGTC</t>
+    <t>F0184-AAGGTCACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTCACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F0185-CAACAGAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGAGAGTCGTCGGCAGCGTC</t>
+    <t>F0185-CGTAGAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTAGAGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F0186-CAGTGAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTGAGTCTTCGTCGGCAGCGTC</t>
+    <t>F0186-CATGTCTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGTCTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F0187-ACACTGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTGTTCTTCGTCGGCAGCGTC</t>
+    <t>F0187-AGACATGCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACATGCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F0188-TACCACTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCACTGGATCGTCGGCAGCGTC</t>
+    <t>F0188-GTACGACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACGACAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F0189-ACATGTGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATGTGTTCTCGTCGGCAGCGTC</t>
+    <t>F0189-GGACTACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGACTACTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F0190-CCTTGTGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGTGGTATCGTCGGCAGCGTC</t>
+    <t>F0190-GAACAAGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACAAGTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F0191-GTCTCTTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCTTCCATCGTCGGCAGCGTC</t>
+    <t>F0191-TGTCTGTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTGTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F0192-ATGTGGTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTGGTACTTCGTCGGCAGCGTC</t>
+    <t>F0192-TGGACATCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGACATCTCTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
